--- a/docs/device-uv-ips.xlsx
+++ b/docs/device-uv-ips.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="440">
   <si>
     <t>Path</t>
   </si>
@@ -999,88 +999,16 @@
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
-    <t>Device.type.coding.id</t>
-  </si>
-  <si>
-    <t>Device.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Device.type.coding.system</t>
-  </si>
-  <si>
-    <t>Device.type.coding.version</t>
-  </si>
-  <si>
-    <t>Device.type.coding.code</t>
-  </si>
-  <si>
-    <t>Device.type.coding.display</t>
-  </si>
-  <si>
-    <t>Device.type.coding.userSelected</t>
-  </si>
-  <si>
     <t>Device.type.text</t>
   </si>
   <si>
     <t>absentOrUnknownDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/CodeableConcept-uv-ips]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>Codes for absent or for unknown devices</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ips/ValueSet/absent-or-unknown-devices-uv-ips</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/ips/CodeSystem/absent-unknown"/&gt;</t>
-  </si>
-  <si>
-    <t>Device.type.coding.display.id</t>
-  </si>
-  <si>
-    <t>Device.type.coding.display.extension</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/translation]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language Translation (Localization)</t>
-  </si>
-  <si>
-    <t>Language translation from base language of resource to another language.</t>
-  </si>
-  <si>
-    <t>Device.type.coding.display.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
+    <t>http://hl7.org/fhir/ips/ValueSet/device-kind</t>
   </si>
   <si>
     <t>device</t>
@@ -1149,7 +1077,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/patient-uv-ips]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
 </t>
   </si>
   <si>
@@ -1464,27 +1392,6 @@
   </si>
   <si>
     <t>Device.safety.coding</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.id</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.extension</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.system</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.version</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.code</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.display</t>
-  </si>
-  <si>
-    <t>Device.safety.coding.userSelected</t>
   </si>
   <si>
     <t>Device.safety.text</t>
@@ -1636,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ146"/>
+  <dimension ref="A1:AJ114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1669,7 +1576,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.3359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.65234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2678,7 +2585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>104</v>
       </c>
@@ -2694,7 +2601,7 @@
         <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2988,7 +2895,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -3076,7 +2983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>128</v>
       </c>
@@ -3092,7 +2999,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -4190,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>36</v>
@@ -4291,7 +4198,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>36</v>
@@ -4379,7 +4286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>191</v>
       </c>
@@ -4397,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4493,7 +4400,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>36</v>
@@ -4990,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>36</v>
@@ -7181,21 +7088,23 @@
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>36</v>
       </c>
@@ -7243,7 +7152,7 @@
         <v>36</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>37</v>
@@ -7260,18 +7169,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>36</v>
@@ -7283,16 +7194,16 @@
         <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7318,48 +7229,48 @@
         <v>36</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7379,23 +7290,21 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>36</v>
       </c>
@@ -7443,7 +7352,7 @@
         <v>36</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>37</v>
@@ -7460,18 +7369,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>36</v>
@@ -7480,19 +7389,19 @@
         <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7530,36 +7439,36 @@
         <v>36</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7570,7 +7479,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>36</v>
@@ -7582,19 +7491,19 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>36</v>
@@ -7643,13 +7552,13 @@
         <v>36</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>52</v>
@@ -7660,7 +7569,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7686,16 +7595,16 @@
         <v>111</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>36</v>
@@ -7744,7 +7653,7 @@
         <v>36</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>37</v>
@@ -7761,9 +7670,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>36</v>
       </c>
@@ -7781,23 +7692,21 @@
         <v>36</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>36</v>
       </c>
@@ -7821,13 +7730,13 @@
         <v>36</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>36</v>
@@ -7845,7 +7754,7 @@
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>37</v>
@@ -7862,7 +7771,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7882,23 +7791,21 @@
         <v>36</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>36</v>
       </c>
@@ -7946,7 +7853,7 @@
         <v>36</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>37</v>
@@ -7961,15 +7868,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7979,7 +7884,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>36</v>
@@ -7988,16 +7893,16 @@
         <v>36</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8023,48 +7928,48 @@
         <v>36</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8075,7 +7980,7 @@
         <v>37</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>36</v>
@@ -8084,21 +7989,23 @@
         <v>36</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>36</v>
       </c>
@@ -8146,13 +8053,13 @@
         <v>36</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>52</v>
@@ -8163,18 +8070,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>36</v>
@@ -8183,21 +8090,23 @@
         <v>36</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>36</v>
       </c>
@@ -8233,36 +8142,36 @@
         <v>36</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8270,35 +8179,33 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>36</v>
       </c>
@@ -8346,13 +8253,13 @@
         <v>36</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>52</v>
@@ -8363,7 +8270,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8389,10 +8296,10 @@
         <v>111</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>114</v>
@@ -8445,7 +8352,7 @@
         <v>36</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>37</v>
@@ -8462,18 +8369,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>36</v>
@@ -8485,17 +8392,15 @@
         <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>36</v>
@@ -8532,36 +8437,36 @@
         <v>36</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8569,41 +8474,37 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>36</v>
@@ -8645,7 +8546,7 @@
         <v>36</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>37</v>
@@ -8662,7 +8563,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8682,19 +8583,19 @@
         <v>36</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8744,7 +8645,7 @@
         <v>36</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>37</v>
@@ -8759,9 +8660,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8769,35 +8670,33 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>160</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>36</v>
       </c>
@@ -8845,7 +8744,7 @@
         <v>36</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>37</v>
@@ -8862,7 +8761,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8870,7 +8769,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>45</v>
@@ -8882,22 +8781,22 @@
         <v>36</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>36</v>
@@ -8946,7 +8845,7 @@
         <v>36</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>37</v>
@@ -8958,12 +8857,12 @@
         <v>52</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9062,7 +8961,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9161,20 +9060,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>36</v>
@@ -9183,19 +9080,19 @@
         <v>36</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9245,24 +9142,24 @@
         <v>36</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9282,18 +9179,20 @@
         <v>36</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>36</v>
@@ -9315,7 +9214,7 @@
         <v>36</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="W77" t="s" s="2">
         <v>36</v>
@@ -9342,7 +9241,7 @@
         <v>36</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>37</v>
@@ -9351,15 +9250,15 @@
         <v>45</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9382,20 +9281,18 @@
         <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>36</v>
       </c>
@@ -9443,7 +9340,7 @@
         <v>36</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>37</v>
@@ -9460,7 +9357,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9471,7 +9368,7 @@
         <v>37</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>36</v>
@@ -9480,23 +9377,21 @@
         <v>36</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>180</v>
+        <v>348</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>36</v>
       </c>
@@ -9544,7 +9439,7 @@
         <v>36</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>37</v>
@@ -9556,16 +9451,14 @@
         <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>36</v>
       </c>
@@ -9574,10 +9467,10 @@
         <v>37</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>36</v>
@@ -9586,16 +9479,16 @@
         <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9621,13 +9514,13 @@
         <v>36</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>339</v>
+        <v>36</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>36</v>
@@ -9645,7 +9538,7 @@
         <v>36</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>37</v>
@@ -9662,18 +9555,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>36</v>
@@ -9685,16 +9578,16 @@
         <v>36</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -9732,47 +9625,47 @@
         <v>36</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>36</v>
@@ -9781,19 +9674,19 @@
         <v>36</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -9831,36 +9724,36 @@
         <v>36</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9871,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>36</v>
@@ -9883,20 +9776,18 @@
         <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>36</v>
       </c>
@@ -9944,13 +9835,13 @@
         <v>36</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>52</v>
@@ -9961,7 +9852,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9981,19 +9872,19 @@
         <v>36</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10043,7 +9934,7 @@
         <v>36</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>37</v>
@@ -10060,18 +9951,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>36</v>
@@ -10083,16 +9974,16 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10130,19 +10021,19 @@
         <v>36</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>118</v>
+        <v>354</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>37</v>
@@ -10154,12 +10045,12 @@
         <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10179,23 +10070,21 @@
         <v>36</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>36</v>
       </c>
@@ -10243,7 +10132,7 @@
         <v>36</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>37</v>
@@ -10260,18 +10149,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>36</v>
@@ -10280,19 +10169,19 @@
         <v>36</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10330,36 +10219,36 @@
         <v>36</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10385,17 +10274,15 @@
         <v>66</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>36</v>
       </c>
@@ -10419,13 +10306,13 @@
         <v>36</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>36</v>
+        <v>366</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>36</v>
@@ -10443,7 +10330,7 @@
         <v>36</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>
@@ -10452,7 +10339,7 @@
         <v>45</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>52</v>
+        <v>368</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>53</v>
@@ -10460,7 +10347,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10486,16 +10373,16 @@
         <v>111</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>36</v>
@@ -10544,7 +10431,7 @@
         <v>36</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>37</v>
@@ -10561,7 +10448,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10578,25 +10465,25 @@
         <v>36</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>36</v>
@@ -10621,13 +10508,13 @@
         <v>36</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>36</v>
@@ -10645,7 +10532,7 @@
         <v>36</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>37</v>
@@ -10662,7 +10549,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10685,20 +10572,18 @@
         <v>46</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>36</v>
       </c>
@@ -10746,7 +10631,7 @@
         <v>36</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>183</v>
+        <v>388</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>37</v>
@@ -10763,7 +10648,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10783,19 +10668,19 @@
         <v>36</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -10845,7 +10730,7 @@
         <v>36</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>37</v>
@@ -10857,12 +10742,12 @@
         <v>52</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>53</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10888,10 +10773,10 @@
         <v>111</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>114</v>
@@ -10944,7 +10829,7 @@
         <v>36</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>343</v>
+        <v>115</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>37</v>
@@ -10961,18 +10846,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>36</v>
@@ -10984,15 +10869,17 @@
         <v>36</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>36</v>
@@ -11029,36 +10916,36 @@
         <v>36</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11078,18 +10965,20 @@
         <v>36</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>36</v>
@@ -11138,7 +11027,7 @@
         <v>36</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>37</v>
@@ -11147,7 +11036,7 @@
         <v>45</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>53</v>
@@ -11155,7 +11044,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11175,25 +11064,27 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="P96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Q96" t="s" s="2">
         <v>36</v>
       </c>
@@ -11237,7 +11128,7 @@
         <v>36</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>37</v>
@@ -11246,7 +11137,7 @@
         <v>45</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>53</v>
@@ -11254,7 +11145,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11265,7 +11156,7 @@
         <v>37</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>36</v>
@@ -11277,18 +11168,20 @@
         <v>36</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>36</v>
       </c>
@@ -11336,7 +11229,7 @@
         <v>36</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>37</v>
@@ -11348,12 +11241,12 @@
         <v>52</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11361,13 +11254,13 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
@@ -11376,20 +11269,18 @@
         <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>361</v>
+        <v>113</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>36</v>
       </c>
@@ -11437,7 +11328,7 @@
         <v>36</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>37</v>
@@ -11449,23 +11340,23 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>36</v>
@@ -11477,16 +11368,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -11524,47 +11415,47 @@
         <v>36</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>36</v>
@@ -11573,19 +11464,19 @@
         <v>36</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -11623,36 +11514,36 @@
         <v>36</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11666,7 +11557,7 @@
         <v>45</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -11675,16 +11566,16 @@
         <v>46</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -11734,7 +11625,7 @@
         <v>36</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>37</v>
@@ -11743,7 +11634,7 @@
         <v>45</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>53</v>
@@ -11751,7 +11642,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11762,7 +11653,7 @@
         <v>37</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>36</v>
@@ -11774,16 +11665,16 @@
         <v>46</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -11833,7 +11724,7 @@
         <v>36</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>37</v>
@@ -11850,7 +11741,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11861,7 +11752,7 @@
         <v>37</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>36</v>
@@ -11870,19 +11761,19 @@
         <v>36</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>241</v>
+        <v>408</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>242</v>
+        <v>409</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>243</v>
+        <v>410</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -11932,7 +11823,7 @@
         <v>36</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>37</v>
@@ -11949,7 +11840,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -11960,7 +11851,7 @@
         <v>37</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>36</v>
@@ -11972,16 +11863,16 @@
         <v>36</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12031,24 +11922,24 @@
         <v>36</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12147,7 +12038,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12246,7 +12137,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12269,16 +12160,16 @@
         <v>46</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>111</v>
+        <v>419</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -12328,7 +12219,7 @@
         <v>36</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>37</v>
@@ -12337,15 +12228,15 @@
         <v>45</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12368,17 +12259,15 @@
         <v>46</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>36</v>
@@ -12427,7 +12316,7 @@
         <v>36</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>239</v>
+        <v>426</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>37</v>
@@ -12444,7 +12333,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12452,7 +12341,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>45</v>
@@ -12464,19 +12353,19 @@
         <v>36</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>241</v>
+        <v>428</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -12526,10 +12415,10 @@
         <v>36</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>244</v>
+        <v>430</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>45</v>
@@ -12543,7 +12432,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12554,7 +12443,7 @@
         <v>37</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>36</v>
@@ -12563,19 +12452,19 @@
         <v>36</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>378</v>
+        <v>129</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -12601,13 +12490,13 @@
         <v>36</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>36</v>
+        <v>434</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>36</v>
@@ -12625,7 +12514,7 @@
         <v>36</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>37</v>
@@ -12637,12 +12526,12 @@
         <v>52</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>382</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12741,7 +12630,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12840,7 +12729,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -12851,7 +12740,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>36</v>
@@ -12863,18 +12752,20 @@
         <v>46</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>386</v>
+        <v>141</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>36</v>
       </c>
@@ -12898,13 +12789,13 @@
         <v>36</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>389</v>
+        <v>36</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>36</v>
@@ -12922,16 +12813,16 @@
         <v>36</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>390</v>
+        <v>145</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>391</v>
+        <v>52</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>53</v>
@@ -12939,7 +12830,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -12965,16 +12856,16 @@
         <v>111</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>36</v>
@@ -13023,7 +12914,7 @@
         <v>36</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>397</v>
+        <v>183</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>37</v>
@@ -13038,3192 +12929,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Q121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI146">
+  <autoFilter ref="A1:AI114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16233,7 +12940,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI145">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
